--- a/Tapestry Ratio & Analysis Report.xlsx
+++ b/Tapestry Ratio & Analysis Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nashikaauguste/Documents/Case Study Financial Analyst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B34616-59D4-E241-B1A9-7DCA75CDAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ACD47C-D9CA-724B-BFB1-296A0E6BBE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{5AD9304B-0719-FB4F-B504-8A7B4989F17F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tapestry - BS" sheetId="1" r:id="rId1"/>
     <sheet name="Tapestry-P&amp;L" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -634,9 +634,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -655,9 +652,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -667,12 +661,6 @@
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,13 +714,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,80 +1063,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="8">
         <v>789.8</v>
       </c>
@@ -1144,29 +1144,29 @@
       <c r="G4" s="6">
         <v>2007.7</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="8">
         <v>163.4</v>
       </c>
@@ -1174,27 +1174,27 @@
       <c r="G5" s="6">
         <v>8.1</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="40" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="41" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1203,8 +1203,8 @@
         <v>39</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="8">
         <v>252.3</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="G6" s="6">
         <v>200.2</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="19"/>
       <c r="J6" s="8" t="s">
         <v>41</v>
@@ -1224,7 +1224,7 @@
       <c r="M6" s="6">
         <v>2007.7</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>994.2</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>734.8</v>
       </c>
       <c r="H7" s="20"/>
@@ -1262,7 +1262,7 @@
       <c r="M7" s="6">
         <v>8.1</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1279,8 +1279,8 @@
         <v>37</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="8">
         <v>217.2</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="G8" s="6">
         <v>254.6</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="19"/>
       <c r="J8" s="8" t="s">
         <v>39</v>
@@ -1317,8 +1317,8 @@
         <v>36</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="8">
         <v>105.2</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="G9" s="6">
         <v>93.8</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="19"/>
       <c r="J9" s="8" t="s">
         <v>38</v>
@@ -1359,7 +1359,7 @@
         <v>51.7</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>76.099999999999994</v>
       </c>
       <c r="H10" s="20"/>
@@ -1402,7 +1402,7 @@
       <c r="G11" s="17">
         <v>3375.3</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="19"/>
       <c r="J11" s="8" t="s">
         <v>36</v>
@@ -1437,7 +1437,7 @@
         <v>544.4</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>678.1</v>
       </c>
       <c r="H12" s="20"/>
@@ -1468,13 +1468,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="8">
         <v>1281.5999999999999</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>1496.6</v>
       </c>
       <c r="H13" s="22"/>
@@ -1512,7 +1512,7 @@
         <v>1241.5</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>1297.3</v>
       </c>
       <c r="H14" s="20"/>
@@ -1549,7 +1549,7 @@
         <v>1366.6</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <v>1373.4</v>
       </c>
       <c r="H15" s="20"/>
@@ -1587,7 +1587,7 @@
         <v>47.9</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>65.599999999999994</v>
       </c>
       <c r="H16" s="20"/>
@@ -1627,7 +1627,7 @@
         <v>209.5</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>96.1</v>
       </c>
       <c r="H17" s="20"/>
@@ -1654,10 +1654,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="15">
         <v>7265.3</v>
       </c>
@@ -1689,13 +1689,13 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="31"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="20"/>
       <c r="I19" s="19"/>
       <c r="J19" s="8" t="s">
@@ -1729,20 +1729,20 @@
       <c r="E20" s="6">
         <v>520.70000000000005</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="91">
         <v>445.2</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="20"/>
       <c r="I20" s="19"/>
       <c r="J20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <v>7265.3</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="29">
         <v>8382.4</v>
       </c>
       <c r="O20" s="8" t="s">
@@ -1766,10 +1766,10 @@
       <c r="E21" s="6">
         <v>628.20000000000005</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="91">
         <v>661.2</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="20"/>
       <c r="I21" s="19"/>
       <c r="O21" s="8" t="s">
@@ -1793,10 +1793,10 @@
       <c r="E22" s="6">
         <v>288.7</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="91">
         <v>319.39999999999998</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="20"/>
       <c r="I22" s="19"/>
       <c r="O22" s="8" t="s">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="16">
-        <f>L8/'Tapestry-P&amp;L'!B3*365</f>
-        <v>13.7765726681128</v>
+        <f>(L8/'Tapestry-P&amp;L'!B3)*360</f>
+        <v>13.587852494577008</v>
       </c>
       <c r="N30" s="16">
-        <f>M8/'Tapestry-P&amp;L'!C3*365</f>
-        <v>12.716530637105615</v>
+        <f>(M8/'Tapestry-P&amp;L'!C3)*360</f>
+        <v>12.54233158728225</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="12">
-        <f>L9/'Tapestry-P&amp;L'!B3*365</f>
+        <f>(L9/'Tapestry-P&amp;L'!B3)*365</f>
         <v>54.287231655322017</v>
       </c>
       <c r="N31" s="12">
-        <f>M9/'Tapestry-P&amp;L'!C3*365</f>
+        <f>(M9/'Tapestry-P&amp;L'!C3)*365</f>
         <v>46.673859701025002</v>
       </c>
     </row>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="12">
-        <f>Q6/'Tapestry-P&amp;L'!B3*365</f>
+        <f>(Q6/'Tapestry-P&amp;L'!B3)*365</f>
         <v>28.432268681277584</v>
       </c>
       <c r="N32" s="12">
-        <f>R6/'Tapestry-P&amp;L'!C3*365</f>
+        <f>(R6/'Tapestry-P&amp;L'!C3)*365</f>
         <v>28.278718479717384</v>
       </c>
     </row>
@@ -2065,11 +2065,11 @@
       <c r="L33" s="9"/>
       <c r="M33" s="11">
         <f>M30+M31-M32</f>
-        <v>39.631535642157239</v>
+        <v>39.44281546862144</v>
       </c>
       <c r="N33" s="11">
         <f>N30+N31-N32</f>
-        <v>31.111671858413231</v>
+        <v>30.937472808589867</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2196,459 +2196,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="92" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="91"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="90">
+      <c r="B3" s="86">
         <v>6684.5</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="78">
         <v>5746.3</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="78">
         <v>4961.3999999999996</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="67">
         <v>2034.1</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="66">
         <v>1664.4</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="66">
         <v>1722.1</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="84">
         <f>B3/C3-1</f>
         <v>0.1632702782660147</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="84">
         <f>C3/D3-1</f>
         <v>0.158201314145201</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="60">
         <v>4650.3999999999996</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="59">
         <v>4081.9</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="59">
         <v>3239.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="67">
         <v>3474.6</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="66">
         <v>3113.9</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="66">
         <v>3312.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="83">
         <v>477.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="60">
         <v>1175.8</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="59">
         <v>968</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="59">
         <v>-550.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="67">
         <v>53.7</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="66" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="64">
         <v>58.7</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="63">
         <v>71.400000000000006</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="63">
         <v>60.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="67">
         <v>16.399999999999999</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="66">
         <v>-0.7</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="66">
         <v>13.3</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="81">
         <v>1047</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="82">
         <v>897.3</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="82">
         <v>-624.20000000000005</v>
       </c>
-      <c r="E12" s="69"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="81">
         <v>190.7</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="80">
         <v>63.1</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="80">
         <v>27.9</v>
       </c>
-      <c r="E13" s="69"/>
-    </row>
-    <row r="14" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="E13" s="65"/>
+    </row>
+    <row r="14" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="60">
         <v>856.3</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="79">
         <v>834.2</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="79">
         <v>-652.1</v>
       </c>
-      <c r="E14" s="66"/>
-    </row>
-    <row r="15" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="E14" s="62"/>
+    </row>
+    <row r="15" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="66"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="67">
         <v>3.24</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="66">
         <v>3</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="77">
         <v>-2.34</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="67">
         <v>3.17</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="76">
         <v>-2.34</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="67">
         <v>264.3</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="66">
         <v>277.89999999999998</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="66">
         <v>278.60000000000002</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="67">
         <v>270.10000000000002</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="66">
         <v>283</v>
       </c>
-      <c r="D20" s="70">
+      <c r="D20" s="66">
         <v>278.60000000000002</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-    </row>
-    <row r="22" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>856.3</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="73">
         <v>-652.1</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="74">
+      <c r="B24" s="70">
         <v>-1.6</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="69">
         <v>-1.8</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="69">
         <v>5.6</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="67">
         <v>-0.5</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="66">
         <v>0.5</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="66">
         <v>-1.7</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="71">
+      <c r="B27" s="67">
         <v>-96.8</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="66">
         <v>22</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="66">
         <v>-13.4</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="E27" s="65"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="64">
         <v>-98.9</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="63">
         <v>20.2</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="63">
         <v>-9</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="60">
         <v>757.4</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="59">
         <v>854.4</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="59">
         <v>-661.1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
@@ -2658,85 +2658,85 @@
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="55" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="62">
+      <c r="C32" s="58">
         <f>B8/B10</f>
         <v>20.03066439522998</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="58">
         <f>C8/C10</f>
         <v>13.557422969187675</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="58">
         <f>D8/D10</f>
         <v>-9.1647254575707144</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="55" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="60">
+      <c r="C33" s="56">
         <f>B14/'Tapestry - BS'!L20</f>
         <v>0.11786161617551924</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="56">
         <f>C14/'Tapestry - BS'!M20</f>
         <v>9.9518037793472042E-2</v>
       </c>
-      <c r="E33" s="61"/>
+      <c r="E33" s="57"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="60">
+      <c r="C34" s="56">
         <f>B14/'Tapestry - BS'!Q23</f>
         <v>0.37466637497265365</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="56">
         <f>C14/'Tapestry - BS'!R23</f>
         <v>0.25594452796612771</v>
       </c>
-      <c r="E34" s="60"/>
+      <c r="E34" s="56"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="55" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="58">
+      <c r="C35" s="54">
         <f>B8/B3</f>
         <v>0.17589946892063729</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="54">
         <f>C8/C3</f>
         <v>0.16845622400501192</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="54">
         <f>D8/D3</f>
         <v>-0.11101705163865037</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="58">
+      <c r="C36" s="54">
         <f>B14/B3</f>
         <v>0.12810232627720847</v>
       </c>
-      <c r="D36" s="58">
+      <c r="D36" s="54">
         <f>C14/C3</f>
         <v>0.14517167568696379</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="54">
         <f>D14/D3</f>
         <v>-0.13143467569637604</v>
       </c>
@@ -2756,25 +2756,25 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="56"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="50"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="51"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
